--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">    开始准备用共享内存的方式传输服务接口，发现这样还是不太行，就改成了从上到下传递，现在已实现。现在服务类型没有做分类，所有接口都写在了基类里面，这样现在能用，但是后面肯定是要区分开的。还有现在急着做模型，当着一部分模型完成后，需要把代码和结构优化一下了</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>模型管理服务目前不完善，性能消耗太大，改成如果模型数据没有更新，则不推送，侦察组件默认保持原有数据。侦察组件从服务获取的数据数据进行处理，如果没有变动，则不需要对数据进行对外推送，有时间再优化</t>
+  </si>
+  <si>
+    <t>其实在每个组件子类里面都要将往事件服务里面推数据，所以事件服务应统一放在组件基类中</t>
   </si>
 </sst>
 </file>
@@ -992,23 +995,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="85.4545454545455" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="70" spans="1:1">
+    <row r="1" ht="56" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="56" spans="1:1">
+    <row r="2" ht="42" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1026,6 +1029,11 @@
     <row r="5" ht="42" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
